--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H2">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>762.0456433883714</v>
+        <v>1087.937328174701</v>
       </c>
       <c r="R2">
-        <v>762.0456433883714</v>
+        <v>9791.435953572312</v>
       </c>
       <c r="S2">
-        <v>0.07334355943245771</v>
+        <v>0.09252858089822719</v>
       </c>
       <c r="T2">
-        <v>0.07334355943245771</v>
+        <v>0.0925285808982272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H3">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>731.144011758845</v>
+        <v>944.1934898959217</v>
       </c>
       <c r="R3">
-        <v>731.144011758845</v>
+        <v>8497.741409063296</v>
       </c>
       <c r="S3">
-        <v>0.07036941257440001</v>
+        <v>0.08030323204369837</v>
       </c>
       <c r="T3">
-        <v>0.07036941257440001</v>
+        <v>0.08030323204369837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H4">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1011.253773402719</v>
+        <v>1320.14885404406</v>
       </c>
       <c r="R4">
-        <v>1011.253773402719</v>
+        <v>11881.33968639654</v>
       </c>
       <c r="S4">
-        <v>0.09732875172814251</v>
+        <v>0.1122780668295101</v>
       </c>
       <c r="T4">
-        <v>0.09732875172814251</v>
+        <v>0.1122780668295101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H5">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>907.0108554587227</v>
+        <v>1005.18834371302</v>
       </c>
       <c r="R5">
-        <v>907.0108554587227</v>
+        <v>9046.695093417182</v>
       </c>
       <c r="S5">
-        <v>0.08729582691061714</v>
+        <v>0.08549081695289515</v>
       </c>
       <c r="T5">
-        <v>0.08729582691061714</v>
+        <v>0.08549081695289515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H6">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>870.2307549719035</v>
+        <v>872.3777240417404</v>
       </c>
       <c r="R6">
-        <v>870.2307549719035</v>
+        <v>7851.399516375664</v>
       </c>
       <c r="S6">
-        <v>0.08375590314175703</v>
+        <v>0.07419533342810854</v>
       </c>
       <c r="T6">
-        <v>0.08375590314175703</v>
+        <v>0.07419533342810852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H7">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>1203.626263148135</v>
+        <v>1219.737760333655</v>
       </c>
       <c r="R7">
-        <v>1203.626263148135</v>
+        <v>10977.63984300289</v>
       </c>
       <c r="S7">
-        <v>0.1158437622885035</v>
+        <v>0.1037381484290168</v>
       </c>
       <c r="T7">
-        <v>0.1158437622885035</v>
+        <v>0.1037381484290168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H8">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>1492.411281835389</v>
+        <v>1722.727111070446</v>
       </c>
       <c r="R8">
-        <v>1492.411281835389</v>
+        <v>15504.54399963401</v>
       </c>
       <c r="S8">
-        <v>0.1436380569807672</v>
+        <v>0.1465171666916591</v>
       </c>
       <c r="T8">
-        <v>0.1436380569807672</v>
+        <v>0.1465171666916591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H9">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>1431.892671078733</v>
+        <v>1495.111603412807</v>
       </c>
       <c r="R9">
-        <v>1431.892671078733</v>
+        <v>13456.00443071527</v>
       </c>
       <c r="S9">
-        <v>0.1378134054480001</v>
+        <v>0.1271585700440691</v>
       </c>
       <c r="T9">
-        <v>0.1378134054480001</v>
+        <v>0.1271585700440691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H10">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1980.4673818674</v>
+        <v>2090.429441671922</v>
       </c>
       <c r="R10">
-        <v>1980.4673818674</v>
+        <v>18813.8649750473</v>
       </c>
       <c r="S10">
-        <v>0.190611321495355</v>
+        <v>0.1777900846828157</v>
       </c>
       <c r="T10">
-        <v>0.190611321495355</v>
+        <v>0.1777900846828157</v>
       </c>
     </row>
   </sheetData>
